--- a/copilot-irr-monte-carlo.xlsx
+++ b/copilot-irr-monte-carlo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E1829B-4217-41CC-8D70-D158AC5D0472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEFE420-8F43-4C37-B45D-3FF9F1531561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{DA3B9664-6E12-4A01-A683-B5F0A5683710}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="1" xr2:uid="{DA3B9664-6E12-4A01-A683-B5F0A5683710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
+    <sheet name="udf-analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="copilot-provided-analysis" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -73,13 +74,27 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -88,6 +103,12 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -115,21 +136,21 @@
       <code>#Generate cash flows for each year based on specified distributions
 np.random.seed(42)
 # Parameters
-initial_investment = -100000
-num_simulations = 10000
+initial_investment = -1 * xl(%P2%)
+num_simulations = xl(%P3%)
 # Cash Flow Period 1 (Uniform Distribution)
-cf1_min = 20000
-cf1_max = 40000
+cf1_min = xl(%P4%)
+cf1_max = xl(%P5%)
 cf1 = np.random.uniform(cf1_min, cf1_max, num_simulations)
 # Cash Flow Period 2 (Normal Distribution)
-cf2_mean = 50000
-cf2_std = 5000
+cf2_mean = xl(%P6%)
+cf2_std = xl(%P7%)
 cf2 = np.random.normal(cf2_mean, cf2_std, num_simulations)
 cf2 = np.clip(cf2, 0, None)  # Ensure non-negative cash flows
 # Cash Flow Period 3 (Triangular Distribution)
-cf3_min = 40000
-cf3_mode = 60000
-cf3_max = 80000
+cf3_min = xl(%P8%)
+cf3_mode = xl(%P9%)
+cf3_max = xl(%P10%)
 cf3 = np.random.triangular(cf3_min, cf3_mode, cf3_max, num_simulations)
 # Combine cash flows
 cash_flows = np.column_stack((np.full(num_simulations, initial_investment), cf1, cf2, cf3))
@@ -192,12 +213,37 @@
 # Display aggregated IRR statistics
 irr_mean, irr_median, irr_ci_lower, irr_ci_upper</code>
     </pythonScript>
+    <pythonScript>
+      <code>#Generate cash flows for each year based on specified distributions
+#np.random.seed(42)
+# Parameters
+#initial_investment = -100000
+#num_simulations = 10000
+# Cash Flow Period 1 (Uniform Distribution)
+#cf1_min = 20000
+#cf1_max = 40000
+#cf1 = np.random.uniform(cf1_min, cf1_max, num_simulations)
+# Cash Flow Period 2 (Normal Distribution)
+#cf2_mean = 50000
+#cf2_std = 5000
+#cf2 = np.random.normal(cf2_mean, cf2_std, num_simulations)
+#cf2 = np.clip(cf2, 0, None)  # Ensure non-negative cash flows
+# Cash Flow Period 3 (Triangular Distribution)
+#cf3_min = 40000
+#cf3_mode = 60000
+#cf3_max = 80000
+#cf3 = np.random.triangular(cf3_min, cf3_mode, cf3_max, num_simulations)
+# Combine cash flows
+#cash_flows = np.column_stack((np.full(num_simulations, initial_investment), cf1, cf2, cf3))
+# Display the first few rows of the generated cash flows
+#cash_flows[:5]</code>
+    </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Analysis Sheet</t>
   </si>
@@ -215,12 +261,51 @@
   </si>
   <si>
     <t>Aggregate IRR results and visualize the distribution</t>
+  </si>
+  <si>
+    <t>Initial investment:</t>
+  </si>
+  <si>
+    <t>Number of simulations:</t>
+  </si>
+  <si>
+    <t>Period 1 (Uniform distribution)</t>
+  </si>
+  <si>
+    <t>Cash flow minimum:</t>
+  </si>
+  <si>
+    <t>Cash flow maximum:</t>
+  </si>
+  <si>
+    <t>Period 2 (Normal distribution)</t>
+  </si>
+  <si>
+    <t>Cash flow mean:</t>
+  </si>
+  <si>
+    <t>Cash flow standard deviation:</t>
+  </si>
+  <si>
+    <t>Period 3 (Triangular distribution)</t>
+  </si>
+  <si>
+    <t>Cash flow min:</t>
+  </si>
+  <si>
+    <t>Cash flow most likely:</t>
+  </si>
+  <si>
+    <t>Cash flow max:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
@@ -274,11 +359,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +384,65 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>892966</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Aggregate IRR results and visualize the distribution">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F426DA-DDF1-97A3-7BDD-DCC0D611AB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'udf-analysis'!A35"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2809876"/>
+          <a:ext cx="14168436" cy="9482509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -316,7 +462,7 @@
         <xdr:cNvPr id="2" name="Picture 1" title="Aggregate IRR results and visualize the distribution">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F426DA-DDF1-97A3-7BDD-DCC0D611AB63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C23DFED-229D-4D9F-8753-1656FBA03679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -324,7 +470,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A28"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'copilot-provided-analysis'!A28"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -353,10 +499,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +580,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -488,7 +630,26 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x790 at 0x7F7D57D10FE0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x790 at 0x7F700CF7E630&gt;</v>
+    <v>8</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <fb>0</fb>
+    <v>6</v>
+  </rv>
+  <rv s="2">
+    <fb>0</fb>
+    <v>&lt;class 'NoneType'&gt;</v>
+    <v>NoneType</v>
+    <v>None</v>
+    <v>10</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x790 at 0x7F700EE7B470&gt;</v>
     <v>8</v>
     <v>2</v>
   </rv>
@@ -496,7 +657,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -522,12 +683,15 @@
     <k n="image" t="r"/>
     <k n="size" t="r"/>
   </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="6">
+  <spbData count="7">
     <spb s="0">
       <v>5</v>
       <v>4</v>
@@ -554,12 +718,15 @@
     <spb s="3">
       <v>1</v>
     </spb>
+    <spb s="4">
+      <v>2</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
   <s>
     <k n="drw" t="i"/>
     <k n="dcol" t="i"/>
@@ -577,17 +744,29 @@
   <s>
     <k n="image" t="i"/>
   </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
   <richProperties>
     <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
   </richProperties>
   <richStyles>
     <rSty>
       <rpv i="0">1</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="1">0;-0;"None"</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -931,112 +1110,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC252F-07D0-43B5-93B9-9D325838BE11}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="3.25" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A13" t="e" cm="1" vm="1">
+        <f t="array" ref="A13">_xlfn._xlws.PY(0,1,B1,B2,B5,B6,E5,E6,H5,H6,H7)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A16" cm="1">
+        <f t="array" ref="A16:D20">IFERROR(_FV(A13,"arrayPreview"),_xlfn._DF_Python_str(A13))</f>
+        <v>-100000</v>
+      </c>
+      <c r="B16">
+        <v>27490.802376947249</v>
+      </c>
+      <c r="C16">
+        <v>42560.691482546885</v>
+      </c>
+      <c r="D16">
+        <v>54556.16433494704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>-100000</v>
+      </c>
+      <c r="B17">
+        <v>39014.286128198321</v>
+      </c>
+      <c r="C17">
+        <v>44374.069491344191</v>
+      </c>
+      <c r="D17">
+        <v>50238.300867323604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>-100000</v>
+      </c>
+      <c r="B18">
+        <v>34639.878836228105</v>
+      </c>
+      <c r="C18">
+        <v>51944.094551318565</v>
+      </c>
+      <c r="D18">
+        <v>55355.318968401567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>-100000</v>
+      </c>
+      <c r="B19">
+        <v>31973.16968394073</v>
+      </c>
+      <c r="C19">
+        <v>44130.633368469855</v>
+      </c>
+      <c r="D19">
+        <v>54472.63806168866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>-100000</v>
+      </c>
+      <c r="B20">
+        <v>23120.37280884873</v>
+      </c>
+      <c r="C20">
+        <v>55563.171526016507</v>
+      </c>
+      <c r="D20">
+        <v>62975.580453635746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A27" cm="1">
+        <f t="array" ref="A27:A31">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v>0.10587147831184698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>0.15294966615873426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>0.18203290401333241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <v>0.13327656519591555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <v>0.1682447471750611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A35" t="e" cm="1" vm="3">
+        <f t="array" ref="A35">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7E492-4FE3-478A-B5F6-30AD63F91CE2}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.9" x14ac:dyDescent="1">
+    <row r="1" spans="1:1" ht="31.9" x14ac:dyDescent="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A6" t="e" cm="1" vm="1">
-        <f t="array" ref="A6">_xlfn._xlws.PY(0,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A6" cm="1" vm="4">
+        <f t="array" ref="A6">_xlfn._xlws.PY(3,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A9" cm="1">
-        <f t="array" ref="A9:D13">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
-        <v>-100000</v>
-      </c>
-      <c r="B9">
-        <v>27490.802376947249</v>
-      </c>
-      <c r="C9">
-        <v>42560.691482546885</v>
-      </c>
-      <c r="D9">
-        <v>54556.16433494704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A10">
-        <v>-100000</v>
-      </c>
-      <c r="B10">
-        <v>39014.286128198321</v>
-      </c>
-      <c r="C10">
-        <v>44374.069491344191</v>
-      </c>
-      <c r="D10">
-        <v>50238.300867323604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A11">
-        <v>-100000</v>
-      </c>
-      <c r="B11">
-        <v>34639.878836228105</v>
-      </c>
-      <c r="C11">
-        <v>51944.094551318565</v>
-      </c>
-      <c r="D11">
-        <v>55355.318968401567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A12">
-        <v>-100000</v>
-      </c>
-      <c r="B12">
-        <v>31973.16968394073</v>
-      </c>
-      <c r="C12">
-        <v>44130.633368469855</v>
-      </c>
-      <c r="D12">
-        <v>54472.63806168866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A13">
-        <v>-100000</v>
-      </c>
-      <c r="B13">
-        <v>23120.37280884873</v>
-      </c>
-      <c r="C13">
-        <v>55563.171526016507</v>
-      </c>
-      <c r="D13">
-        <v>62975.580453635746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1437,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A28" t="e" cm="1" vm="3">
+      <c r="A28" t="e" cm="1" vm="5">
         <f t="array" ref="A28">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
